--- a/matlab/graphs/graph.xlsx
+++ b/matlab/graphs/graph.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C138517E-0BDC-42A6-AE87-63529287BD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5125414D-7E5F-4C9B-A0BA-E7A553C91B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1344" windowWidth="19812" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="1344" windowWidth="19812" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -340,62 +349,62 @@
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.95199999999999996</v>
+        <v>0.16</v>
       </c>
       <c r="B1">
-        <v>0.31900000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="C1">
-        <v>0.376</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="D1">
-        <v>0.31900000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E1">
-        <v>0.95199999999999996</v>
+        <v>0.16</v>
       </c>
       <c r="G1">
-        <v>49.2</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="H1">
-        <v>212.4</v>
+        <v>146.5</v>
       </c>
       <c r="I1">
-        <v>136.19999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="J1">
-        <v>77.5</v>
+        <v>187.1</v>
       </c>
       <c r="K1">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="L1">
-        <v>248.5</v>
+        <v>86.5</v>
       </c>
       <c r="N1">
-        <v>0.83199999999999996</v>
+        <v>0.313</v>
       </c>
       <c r="O1">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="P1">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="Q1">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="R1">
         <v>0.89700000000000002</v>
       </c>
-      <c r="P1">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="Q1">
-        <v>0.873</v>
-      </c>
-      <c r="R1">
-        <v>0.93700000000000006</v>
-      </c>
       <c r="S1">
-        <v>1</v>
+        <v>0.93300000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/graphs/graph.xlsx
+++ b/matlab/graphs/graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5125414D-7E5F-4C9B-A0BA-E7A553C91B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE18CF72-8EE8-4401-84FB-230C4E1AF816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1344" windowWidth="19812" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="648" windowWidth="19812" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,62 +349,62 @@
   <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G1" sqref="G1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.16</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="B1">
-        <v>0.5</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="C1">
-        <v>0.83699999999999997</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="D1">
-        <v>0.5</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="E1">
-        <v>0.16</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="G1">
-        <v>294.39999999999998</v>
+        <v>216</v>
       </c>
       <c r="H1">
-        <v>146.5</v>
+        <v>109.5</v>
       </c>
       <c r="I1">
-        <v>73.8</v>
+        <v>224.5</v>
       </c>
       <c r="J1">
-        <v>187.1</v>
+        <v>117</v>
       </c>
       <c r="K1">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="L1">
-        <v>86.5</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="N1">
-        <v>0.313</v>
+        <v>1</v>
       </c>
       <c r="O1">
-        <v>0.92300000000000004</v>
+        <v>1</v>
       </c>
       <c r="P1">
-        <v>0.86799999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q1">
-        <v>0.69499999999999995</v>
+        <v>1</v>
       </c>
       <c r="R1">
-        <v>0.89700000000000002</v>
+        <v>1</v>
       </c>
       <c r="S1">
-        <v>0.93300000000000005</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/graphs/graph.xlsx
+++ b/matlab/graphs/graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE18CF72-8EE8-4401-84FB-230C4E1AF816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FBEB25-F87B-4CE5-9107-66F5757B654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="648" windowWidth="19812" windowHeight="11616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19788" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,10 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -44,12 +48,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,45 +359,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="B1">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="C1">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="D1">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="E1">
-        <v>0.13600000000000001</v>
+      <c r="A1" s="1">
+        <v>1.41505558</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.99963179999999996</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.44537543000000002</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.45855374999999998</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1.4550427500000001</v>
       </c>
       <c r="G1">
-        <v>216</v>
+        <v>276.82927100016661</v>
       </c>
       <c r="H1">
-        <v>109.5</v>
+        <v>161.66657076421441</v>
       </c>
       <c r="I1">
-        <v>224.5</v>
+        <v>191.97843297134187</v>
       </c>
       <c r="J1">
-        <v>117</v>
+        <v>47.607356108895189</v>
       </c>
       <c r="K1">
-        <v>155</v>
+        <v>266.55094178199312</v>
       </c>
       <c r="L1">
-        <v>132.80000000000001</v>
+        <v>144.74797169996239</v>
       </c>
       <c r="N1">
         <v>1</v>

--- a/matlab/graphs/graph.xlsx
+++ b/matlab/graphs/graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FBEB25-F87B-4CE5-9107-66F5757B654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88480D7-DD88-4279-9683-4491F3DED0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="19788" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8088" yWindow="876" windowWidth="19788" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>90DEG</t>
+  </si>
+  <si>
+    <t>40DEG</t>
+  </si>
+  <si>
+    <t>20DEG</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57,7 +67,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,47 +367,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>1.41505558</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0.99963179999999996</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.44537543000000002</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0.45855374999999998</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1.4550427500000001</v>
+      <c r="A1">
+        <v>0.3</v>
+      </c>
+      <c r="B1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C1">
+        <v>0.52</v>
+      </c>
+      <c r="D1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E1">
+        <v>0.3</v>
       </c>
       <c r="G1">
-        <v>276.82927100016661</v>
+        <v>230</v>
       </c>
       <c r="H1">
-        <v>161.66657076421441</v>
+        <v>105</v>
       </c>
       <c r="I1">
-        <v>191.97843297134187</v>
+        <v>315</v>
       </c>
       <c r="J1">
-        <v>47.607356108895189</v>
+        <v>193</v>
       </c>
       <c r="K1">
-        <v>266.55094178199312</v>
+        <v>40</v>
       </c>
       <c r="L1">
-        <v>144.74797169996239</v>
+        <v>277</v>
       </c>
       <c r="N1">
         <v>1</v>
@@ -416,6 +426,502 @@
       </c>
       <c r="S1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2">
+        <v>250</v>
+      </c>
+      <c r="H2">
+        <v>104</v>
+      </c>
+      <c r="I2">
+        <v>316</v>
+      </c>
+      <c r="J2">
+        <v>162</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>231</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.35</v>
+      </c>
+      <c r="B3">
+        <v>0.48</v>
+      </c>
+      <c r="C3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D3">
+        <v>0.48</v>
+      </c>
+      <c r="E3">
+        <v>0.35</v>
+      </c>
+      <c r="G3">
+        <v>138</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>211</v>
+      </c>
+      <c r="J3">
+        <v>59</v>
+      </c>
+      <c r="K3">
+        <v>275</v>
+      </c>
+      <c r="L3">
+        <v>133</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>260</v>
+      </c>
+      <c r="I5">
+        <v>137</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>255</v>
+      </c>
+      <c r="L5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.43</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G8">
+        <v>186.13663297825354</v>
+      </c>
+      <c r="H8">
+        <v>46.25870588245818</v>
+      </c>
+      <c r="I8">
+        <v>279.956181909939</v>
+      </c>
+      <c r="J8">
+        <v>143.90165597311929</v>
+      </c>
+      <c r="K8">
+        <v>8.267461216882575</v>
+      </c>
+      <c r="L8">
+        <v>236.73973803912457</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>229.87843728410635</v>
+      </c>
+      <c r="B19">
+        <v>104.71420765297123</v>
+      </c>
+      <c r="C19">
+        <v>315.36731273209466</v>
+      </c>
+      <c r="D19">
+        <v>192.93066648648812</v>
+      </c>
+      <c r="E19">
+        <v>40.638746930069601</v>
+      </c>
+      <c r="F19">
+        <v>276.69332133816965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>249.04936754908005</v>
+      </c>
+      <c r="B20" s="1">
+        <v>104.25330438531742</v>
+      </c>
+      <c r="C20" s="1">
+        <v>315.92611078837393</v>
+      </c>
+      <c r="D20" s="1">
+        <v>162.05202245385004</v>
+      </c>
+      <c r="E20" s="1">
+        <v>14.620095100616252</v>
+      </c>
+      <c r="F20" s="1">
+        <v>231.38894081647319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>138.08889104081908</v>
+      </c>
+      <c r="B21">
+        <v>355.57920038150098</v>
+      </c>
+      <c r="C21">
+        <v>211.07323959117636</v>
+      </c>
+      <c r="D21">
+        <v>58.927818350085367</v>
+      </c>
+      <c r="E21">
+        <v>274.52883060912973</v>
+      </c>
+      <c r="F21">
+        <v>132.5176813825683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>313.0496558512549</v>
+      </c>
+      <c r="B23">
+        <v>189.16693521893737</v>
+      </c>
+      <c r="C23">
+        <v>68.82323579610015</v>
+      </c>
+      <c r="D23">
+        <v>319.36942455056464</v>
+      </c>
+      <c r="E23">
+        <v>200.1722341582406</v>
+      </c>
+      <c r="F23">
+        <v>75.138366912682045</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>289.02620224200973</v>
+      </c>
+      <c r="B24">
+        <v>175.56021468105814</v>
+      </c>
+      <c r="C24">
+        <v>41.230352192063478</v>
+      </c>
+      <c r="D24">
+        <v>273.29888362586786</v>
+      </c>
+      <c r="E24">
+        <v>140.72987681696728</v>
+      </c>
+      <c r="F24">
+        <v>25.617088643085935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>356.07443206723138</v>
+      </c>
+      <c r="B25">
+        <v>228.33380886421239</v>
+      </c>
+      <c r="C25">
+        <v>102.55973836892723</v>
+      </c>
+      <c r="D25">
+        <v>340.361614106415</v>
+      </c>
+      <c r="E25">
+        <v>216.18691914447382</v>
+      </c>
+      <c r="F25">
+        <v>86.019713670507144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>240</v>
+      </c>
+      <c r="C27">
+        <v>110</v>
+      </c>
+      <c r="D27">
+        <v>340</v>
+      </c>
+      <c r="E27">
+        <v>200</v>
+      </c>
+      <c r="F27">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>288</v>
+      </c>
+      <c r="B28">
+        <v>162</v>
+      </c>
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>255</v>
+      </c>
+      <c r="E28">
+        <v>120</v>
+      </c>
+      <c r="F28">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>220</v>
+      </c>
+      <c r="B29">
+        <v>90</v>
+      </c>
+      <c r="C29">
+        <v>310</v>
+      </c>
+      <c r="D29">
+        <v>160</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="F29">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>250</v>
+      </c>
+      <c r="B31">
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <v>270</v>
+      </c>
+      <c r="D31">
+        <v>125</v>
+      </c>
+      <c r="E31">
+        <v>320</v>
+      </c>
+      <c r="F31">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>214</v>
+      </c>
+      <c r="B32">
+        <v>70</v>
+      </c>
+      <c r="C32">
+        <v>270</v>
+      </c>
+      <c r="D32">
+        <v>109</v>
+      </c>
+      <c r="E32">
+        <v>309</v>
+      </c>
+      <c r="F32">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>142</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>200</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>230</v>
+      </c>
+      <c r="F33">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/graphs/graph.xlsx
+++ b/matlab/graphs/graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88480D7-DD88-4279-9683-4491F3DED0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94558B4A-EB3E-433B-A5E8-5A53BA176481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8088" yWindow="876" windowWidth="19788" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -367,47 +367,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.3</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="B1">
-        <v>0.47499999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="C1">
-        <v>0.52</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="D1">
-        <v>0.47499999999999998</v>
+        <v>0.442</v>
       </c>
       <c r="E1">
-        <v>0.3</v>
+        <v>0.498</v>
       </c>
       <c r="G1">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="H1">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="I1">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="J1">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K1">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="L1">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="N1">
         <v>1</v>
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.42499999999999999</v>
       </c>
@@ -446,44 +446,44 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="H2">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="I2">
-        <v>316</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>162</v>
+        <v>255</v>
       </c>
       <c r="K2">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="L2">
-        <v>231</v>
+        <v>354</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.35</v>
       </c>
@@ -500,22 +500,22 @@
         <v>0.35</v>
       </c>
       <c r="G3">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="I3">
-        <v>211</v>
+        <v>310</v>
       </c>
       <c r="J3">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="K3">
-        <v>275</v>
+        <v>60</v>
       </c>
       <c r="L3">
-        <v>133</v>
+        <v>290</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="G5">
         <v>33</v>
       </c>
@@ -556,7 +556,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.27500000000000002</v>
       </c>
@@ -609,12 +609,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <v>0.62479636999999999</v>
+      </c>
+      <c r="P12">
+        <v>0.57086497999999997</v>
+      </c>
+      <c r="Q12">
+        <v>0.88394444000000005</v>
+      </c>
+      <c r="R12">
+        <v>0.88394444000000005</v>
+      </c>
+      <c r="S12">
+        <v>0.57086497999999997</v>
+      </c>
+      <c r="T12">
+        <v>0.62479636999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -634,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -654,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -674,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>229.87843728410635</v>
       </c>
@@ -693,8 +713,41 @@
       <c r="F19">
         <v>276.69332133816965</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>230</v>
+      </c>
+      <c r="I19">
+        <v>105</v>
+      </c>
+      <c r="J19">
+        <v>315</v>
+      </c>
+      <c r="K19">
+        <v>193</v>
+      </c>
+      <c r="L19">
+        <v>40</v>
+      </c>
+      <c r="M19">
+        <v>277</v>
+      </c>
+      <c r="P19">
+        <v>0.3</v>
+      </c>
+      <c r="Q19">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="R19">
+        <v>0.52</v>
+      </c>
+      <c r="S19">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="T19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>249.04936754908005</v>
       </c>
@@ -713,8 +766,41 @@
       <c r="F20" s="1">
         <v>231.38894081647319</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>250</v>
+      </c>
+      <c r="I20">
+        <v>104</v>
+      </c>
+      <c r="J20">
+        <v>316</v>
+      </c>
+      <c r="K20">
+        <v>162</v>
+      </c>
+      <c r="L20">
+        <v>15</v>
+      </c>
+      <c r="M20">
+        <v>231</v>
+      </c>
+      <c r="P20">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="R20">
+        <v>0.5</v>
+      </c>
+      <c r="S20">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="T20">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>138.08889104081908</v>
       </c>
@@ -733,8 +819,41 @@
       <c r="F21">
         <v>132.5176813825683</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>138</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>211</v>
+      </c>
+      <c r="K21">
+        <v>59</v>
+      </c>
+      <c r="L21">
+        <v>275</v>
+      </c>
+      <c r="M21">
+        <v>133</v>
+      </c>
+      <c r="P21">
+        <v>0.35</v>
+      </c>
+      <c r="Q21">
+        <v>0.48</v>
+      </c>
+      <c r="R21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S21">
+        <v>0.48</v>
+      </c>
+      <c r="T21">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>313.0496558512549</v>
       </c>
@@ -754,7 +873,7 @@
         <v>75.138366912682045</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>289.02620224200973</v>
       </c>
@@ -774,7 +893,7 @@
         <v>25.617088643085935</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>356.07443206723138</v>
       </c>
@@ -794,12 +913,12 @@
         <v>86.019713670507144</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -819,7 +938,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>288</v>
       </c>
@@ -839,7 +958,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>220</v>
       </c>
@@ -859,12 +978,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>250</v>
       </c>
@@ -884,7 +1003,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>214</v>
       </c>

--- a/matlab/graphs/graph.xlsx
+++ b/matlab/graphs/graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94558B4A-EB3E-433B-A5E8-5A53BA176481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DB53D5-8378-4513-8713-ACCA17440F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,44 +370,44 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G1" sqref="G1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.42599999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="B1">
-        <v>0.44400000000000001</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C1">
-        <v>0.36699999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="D1">
-        <v>0.442</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="E1">
-        <v>0.498</v>
+        <v>0.3</v>
       </c>
       <c r="G1">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="H1">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="I1">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="J1">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K1">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="L1">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="N1">
         <v>1</v>
@@ -446,22 +446,22 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="H2">
+        <v>104</v>
+      </c>
+      <c r="I2">
+        <v>316</v>
+      </c>
+      <c r="J2">
         <v>162</v>
       </c>
-      <c r="I2">
-        <v>25</v>
-      </c>
-      <c r="J2">
-        <v>255</v>
-      </c>
       <c r="K2">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="L2">
-        <v>354</v>
+        <v>231</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2">
@@ -500,22 +500,22 @@
         <v>0.35</v>
       </c>
       <c r="G3">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="H3">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="J3">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="K3">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="L3">
-        <v>290</v>
+        <v>133</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -713,24 +713,6 @@
       <c r="F19">
         <v>276.69332133816965</v>
       </c>
-      <c r="H19">
-        <v>230</v>
-      </c>
-      <c r="I19">
-        <v>105</v>
-      </c>
-      <c r="J19">
-        <v>315</v>
-      </c>
-      <c r="K19">
-        <v>193</v>
-      </c>
-      <c r="L19">
-        <v>40</v>
-      </c>
-      <c r="M19">
-        <v>277</v>
-      </c>
       <c r="P19">
         <v>0.3</v>
       </c>
@@ -766,24 +748,6 @@
       <c r="F20" s="1">
         <v>231.38894081647319</v>
       </c>
-      <c r="H20">
-        <v>250</v>
-      </c>
-      <c r="I20">
-        <v>104</v>
-      </c>
-      <c r="J20">
-        <v>316</v>
-      </c>
-      <c r="K20">
-        <v>162</v>
-      </c>
-      <c r="L20">
-        <v>15</v>
-      </c>
-      <c r="M20">
-        <v>231</v>
-      </c>
       <c r="P20">
         <v>0.42499999999999999</v>
       </c>
@@ -818,24 +782,6 @@
       </c>
       <c r="F21">
         <v>132.5176813825683</v>
-      </c>
-      <c r="H21">
-        <v>138</v>
-      </c>
-      <c r="I21">
-        <v>20</v>
-      </c>
-      <c r="J21">
-        <v>211</v>
-      </c>
-      <c r="K21">
-        <v>59</v>
-      </c>
-      <c r="L21">
-        <v>275</v>
-      </c>
-      <c r="M21">
-        <v>133</v>
       </c>
       <c r="P21">
         <v>0.35</v>
